--- a/Code/Results/Cases/Case_9_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006404471877849</v>
+        <v>1.005943049958607</v>
       </c>
       <c r="D2">
-        <v>1.029824314628399</v>
+        <v>1.028844371390931</v>
       </c>
       <c r="E2">
-        <v>1.011759669254186</v>
+        <v>1.011409291392249</v>
       </c>
       <c r="F2">
-        <v>1.03574911645231</v>
+        <v>1.03511458739613</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048075723247787</v>
+        <v>1.047723916164521</v>
       </c>
       <c r="J2">
-        <v>1.028395299246344</v>
+        <v>1.027947446888951</v>
       </c>
       <c r="K2">
-        <v>1.040883216162499</v>
+        <v>1.039915968193885</v>
       </c>
       <c r="L2">
-        <v>1.023057568666013</v>
+        <v>1.022711932495979</v>
       </c>
       <c r="M2">
-        <v>1.046731900900734</v>
+        <v>1.046105471701545</v>
       </c>
       <c r="N2">
-        <v>1.012799885058618</v>
+        <v>1.014234769782563</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045557537967116</v>
+        <v>1.04506176453616</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039978255934383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039303088711707</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022502176780872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010949307708624</v>
+        <v>1.010198625979317</v>
       </c>
       <c r="D3">
-        <v>1.03287473304062</v>
+        <v>1.031592321680724</v>
       </c>
       <c r="E3">
-        <v>1.015419600365407</v>
+        <v>1.014811250139612</v>
       </c>
       <c r="F3">
-        <v>1.038763217661566</v>
+        <v>1.037904833752675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048984554520727</v>
+        <v>1.04849420978834</v>
       </c>
       <c r="J3">
-        <v>1.031145869646153</v>
+        <v>1.030415075235298</v>
       </c>
       <c r="K3">
-        <v>1.043103569364964</v>
+        <v>1.041836321177786</v>
       </c>
       <c r="L3">
-        <v>1.025858914032093</v>
+        <v>1.025258061877918</v>
       </c>
       <c r="M3">
-        <v>1.048923023211596</v>
+        <v>1.048074641830127</v>
       </c>
       <c r="N3">
-        <v>1.013778303487008</v>
+        <v>1.014927545568808</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04729165026559</v>
+        <v>1.046620219228174</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041545575640396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040658003047925</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022929317466618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013833619799216</v>
+        <v>1.01290207857312</v>
       </c>
       <c r="D4">
-        <v>1.034814278352101</v>
+        <v>1.033341657208042</v>
       </c>
       <c r="E4">
-        <v>1.017748105675005</v>
+        <v>1.016978318175649</v>
       </c>
       <c r="F4">
-        <v>1.040682538472309</v>
+        <v>1.039683668723399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049551639311497</v>
+        <v>1.048974173173921</v>
       </c>
       <c r="J4">
-        <v>1.03288995975671</v>
+        <v>1.031981408487556</v>
       </c>
       <c r="K4">
-        <v>1.044509926450943</v>
+        <v>1.043053665914049</v>
       </c>
       <c r="L4">
-        <v>1.02763694372202</v>
+        <v>1.026876059053796</v>
       </c>
       <c r="M4">
-        <v>1.050313555826525</v>
+        <v>1.049325623958301</v>
       </c>
       <c r="N4">
-        <v>1.014398051315036</v>
+        <v>1.015367002093817</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048392152536781</v>
+        <v>1.047610278728831</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042540879809752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041519740147849</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023197611425745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015038259378543</v>
+        <v>1.014031598798869</v>
       </c>
       <c r="D5">
-        <v>1.035627332307441</v>
+        <v>1.034075581828007</v>
       </c>
       <c r="E5">
-        <v>1.018722635788992</v>
+        <v>1.017885739014869</v>
       </c>
       <c r="F5">
-        <v>1.041486399188838</v>
+        <v>1.040429123464114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049788023920373</v>
+        <v>1.049174256715389</v>
       </c>
       <c r="J5">
-        <v>1.033619886065623</v>
+        <v>1.032637318911497</v>
       </c>
       <c r="K5">
-        <v>1.045099660564158</v>
+        <v>1.04356469015391</v>
       </c>
       <c r="L5">
-        <v>1.028381156677946</v>
+        <v>1.027553675561752</v>
       </c>
       <c r="M5">
-        <v>1.05089592160776</v>
+        <v>1.049849915221022</v>
       </c>
       <c r="N5">
-        <v>1.014658016885928</v>
+        <v>1.015551502516917</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04885305088821</v>
+        <v>1.048025215953533</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04296501148583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041888928439348</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023310292300859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015246015971297</v>
+        <v>1.014226188660744</v>
       </c>
       <c r="D6">
-        <v>1.035770246729678</v>
+        <v>1.034204759734989</v>
       </c>
       <c r="E6">
-        <v>1.018891608324388</v>
+        <v>1.018042909047017</v>
       </c>
       <c r="F6">
-        <v>1.041626042019176</v>
+        <v>1.040558596382469</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049830979964192</v>
+        <v>1.049210838035738</v>
       </c>
       <c r="J6">
-        <v>1.033748061386366</v>
+        <v>1.032752515599503</v>
       </c>
       <c r="K6">
-        <v>1.045205056336407</v>
+        <v>1.043656420202567</v>
       </c>
       <c r="L6">
-        <v>1.028511458648195</v>
+        <v>1.027672263095642</v>
       </c>
       <c r="M6">
-        <v>1.050998369573917</v>
+        <v>1.04994224956327</v>
       </c>
       <c r="N6">
-        <v>1.014704577818557</v>
+        <v>1.01558456879073</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048934130654571</v>
+        <v>1.048098291638396</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043048243738533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041963367385722</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023331282129153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013866649283653</v>
+        <v>1.012943529513296</v>
       </c>
       <c r="D7">
-        <v>1.034843663007254</v>
+        <v>1.03337662664328</v>
       </c>
       <c r="E7">
-        <v>1.017777061458118</v>
+        <v>1.017015107750666</v>
       </c>
       <c r="F7">
-        <v>1.040707035351235</v>
+        <v>1.039712946905284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049564415553896</v>
+        <v>1.048989735525433</v>
       </c>
       <c r="J7">
-        <v>1.032916211678089</v>
+        <v>1.032015863463962</v>
       </c>
       <c r="K7">
-        <v>1.044536118642643</v>
+        <v>1.04308537416401</v>
       </c>
       <c r="L7">
-        <v>1.027662633881999</v>
+        <v>1.026909488753749</v>
       </c>
       <c r="M7">
-        <v>1.050334939681561</v>
+        <v>1.049351732449193</v>
       </c>
       <c r="N7">
-        <v>1.014409919061625</v>
+        <v>1.01540507955049</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048409076241433</v>
+        <v>1.047630941647343</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042579435958788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041564196589549</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023207750558686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007973908009934</v>
+        <v>1.007445674346252</v>
       </c>
       <c r="D8">
-        <v>1.030885764195584</v>
+        <v>1.029825749823126</v>
       </c>
       <c r="E8">
-        <v>1.013025274966507</v>
+        <v>1.01261666991432</v>
       </c>
       <c r="F8">
-        <v>1.03679166946608</v>
+        <v>1.036100004732956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048399453732133</v>
+        <v>1.048012125794409</v>
       </c>
       <c r="J8">
-        <v>1.029353305857029</v>
+        <v>1.02884007619145</v>
       </c>
       <c r="K8">
-        <v>1.041663009632326</v>
+        <v>1.040616317505891</v>
       </c>
       <c r="L8">
-        <v>1.024031654472698</v>
+        <v>1.023628409971147</v>
       </c>
       <c r="M8">
-        <v>1.047495310551661</v>
+        <v>1.046812211901764</v>
       </c>
       <c r="N8">
-        <v>1.013144130042523</v>
+        <v>1.014568855965353</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046161721071672</v>
+        <v>1.045621098295035</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040552486131591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039823409651371</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022664324115056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9971070816631157</v>
+        <v>0.9972940902294624</v>
       </c>
       <c r="D9">
-        <v>1.02360735317395</v>
+        <v>1.023286141120469</v>
       </c>
       <c r="E9">
-        <v>1.004306827566568</v>
+        <v>1.004535428013965</v>
       </c>
       <c r="F9">
-        <v>1.029621843042716</v>
+        <v>1.029479307538797</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046165830113428</v>
+        <v>1.046117387170684</v>
       </c>
       <c r="J9">
-        <v>1.02276241155925</v>
+        <v>1.022942764330097</v>
       </c>
       <c r="K9">
-        <v>1.036328686493251</v>
+        <v>1.036012385713883</v>
       </c>
       <c r="L9">
-        <v>1.017330413836376</v>
+        <v>1.017555347159331</v>
       </c>
       <c r="M9">
-        <v>1.042251936444972</v>
+        <v>1.042111547502921</v>
       </c>
       <c r="N9">
-        <v>1.010793417675704</v>
+        <v>1.012919998956811</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042011962525325</v>
+        <v>1.041900854314402</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036777593737317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03656468848717</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021624610193681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9896112187815825</v>
+        <v>0.9903521894484884</v>
       </c>
       <c r="D10">
-        <v>1.018640024589372</v>
+        <v>1.018870087676058</v>
       </c>
       <c r="E10">
-        <v>0.9983411737259059</v>
+        <v>0.9990632576730916</v>
       </c>
       <c r="F10">
-        <v>1.02479208437657</v>
+        <v>1.025064068203115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044608255477703</v>
+        <v>1.044813215540346</v>
       </c>
       <c r="J10">
-        <v>1.018243167381992</v>
+        <v>1.018953888156515</v>
       </c>
       <c r="K10">
-        <v>1.032680690484957</v>
+        <v>1.032906795103235</v>
       </c>
       <c r="L10">
-        <v>1.012740443524386</v>
+        <v>1.013449445914479</v>
       </c>
       <c r="M10">
-        <v>1.038727687344478</v>
+        <v>1.038995063884364</v>
       </c>
       <c r="N10">
-        <v>1.009191937310819</v>
+        <v>1.011927344123137</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039274144864193</v>
+        <v>1.039485742634927</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034215045871784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034387342976106</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020924355596301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9869712004957051</v>
+        <v>0.9879206764050443</v>
       </c>
       <c r="D11">
-        <v>1.017110511687231</v>
+        <v>1.017536258736975</v>
       </c>
       <c r="E11">
-        <v>0.9963505057549223</v>
+        <v>0.9972535457869754</v>
       </c>
       <c r="F11">
-        <v>1.023696041919924</v>
+        <v>1.024116698468651</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044288528079743</v>
+        <v>1.044573210670245</v>
       </c>
       <c r="J11">
-        <v>1.016896220166418</v>
+        <v>1.017804748803156</v>
       </c>
       <c r="K11">
-        <v>1.031716805178061</v>
+        <v>1.032134874759914</v>
       </c>
       <c r="L11">
-        <v>1.011341575936705</v>
+        <v>1.012227442739414</v>
       </c>
       <c r="M11">
-        <v>1.038184506135957</v>
+        <v>1.038597703034557</v>
       </c>
       <c r="N11">
-        <v>1.00882162278076</v>
+        <v>1.011913551226653</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039280083615049</v>
+        <v>1.039606917379099</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033566435513108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033877664272122</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020824627139808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9862260260447591</v>
+        <v>0.9872133939429574</v>
       </c>
       <c r="D12">
-        <v>1.016771949492722</v>
+        <v>1.017233141667386</v>
       </c>
       <c r="E12">
-        <v>0.9958392612491931</v>
+        <v>0.9967703747198509</v>
       </c>
       <c r="F12">
-        <v>1.023655873724145</v>
+        <v>1.024102608413796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044303983556242</v>
+        <v>1.044595072619804</v>
       </c>
       <c r="J12">
-        <v>1.016624985377576</v>
+        <v>1.017568940470107</v>
       </c>
       <c r="K12">
-        <v>1.031584728343561</v>
+        <v>1.032037465358878</v>
       </c>
       <c r="L12">
-        <v>1.011046610945317</v>
+        <v>1.011959711925847</v>
       </c>
       <c r="M12">
-        <v>1.038343477004178</v>
+        <v>1.038782163952561</v>
       </c>
       <c r="N12">
-        <v>1.008811415351605</v>
+        <v>1.012008322044476</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039731894490526</v>
+        <v>1.04007877339233</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033473052589878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03380879393207</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020856150456583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9869156972937189</v>
+        <v>0.987791748242503</v>
       </c>
       <c r="D13">
-        <v>1.017354194494849</v>
+        <v>1.017714208555517</v>
       </c>
       <c r="E13">
-        <v>0.9964537286855607</v>
+        <v>0.9972785023068544</v>
       </c>
       <c r="F13">
-        <v>1.024456246685085</v>
+        <v>1.024823683740677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044596666677371</v>
+        <v>1.044830705932191</v>
       </c>
       <c r="J13">
-        <v>1.017189631072468</v>
+        <v>1.018027375442132</v>
       </c>
       <c r="K13">
-        <v>1.032113356556837</v>
+        <v>1.032466801401892</v>
       </c>
       <c r="L13">
-        <v>1.011604923030873</v>
+        <v>1.012413818451437</v>
       </c>
       <c r="M13">
-        <v>1.039086924700193</v>
+        <v>1.039447777339677</v>
       </c>
       <c r="N13">
-        <v>1.009089950377797</v>
+        <v>1.012162347152783</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040596092969379</v>
+        <v>1.040881355136317</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03384431441984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03410960485952</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020996665832589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9880483032052438</v>
+        <v>0.9887803403152237</v>
       </c>
       <c r="D14">
-        <v>1.018179410121341</v>
+        <v>1.018408072020582</v>
       </c>
       <c r="E14">
-        <v>0.9973937088576575</v>
+        <v>0.9980848955809578</v>
       </c>
       <c r="F14">
-        <v>1.025396594953885</v>
+        <v>1.025661984400234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044926781255401</v>
+        <v>1.045093294620888</v>
       </c>
       <c r="J14">
-        <v>1.01796325826866</v>
+        <v>1.018663768479773</v>
       </c>
       <c r="K14">
-        <v>1.032782974462967</v>
+        <v>1.033007517753225</v>
       </c>
       <c r="L14">
-        <v>1.012381977588568</v>
+        <v>1.013060034969553</v>
       </c>
       <c r="M14">
-        <v>1.03987131403706</v>
+        <v>1.040132010428902</v>
       </c>
       <c r="N14">
-        <v>1.009415748385974</v>
+        <v>1.012298981854812</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041389257355842</v>
+        <v>1.041595316004711</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034319184399854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034493466708594</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021145155733254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9886445462649421</v>
+        <v>0.9893093975201299</v>
       </c>
       <c r="D15">
-        <v>1.018591620646278</v>
+        <v>1.018758714302276</v>
       </c>
       <c r="E15">
-        <v>0.9978757710330464</v>
+        <v>0.9985056989085676</v>
       </c>
       <c r="F15">
-        <v>1.025825713670286</v>
+        <v>1.026043537629763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045073492858952</v>
+        <v>1.045209997296997</v>
       </c>
       <c r="J15">
-        <v>1.018343476499623</v>
+        <v>1.018979955073687</v>
       </c>
       <c r="K15">
-        <v>1.033101212208475</v>
+        <v>1.033265319665994</v>
       </c>
       <c r="L15">
-        <v>1.012765707608828</v>
+        <v>1.013383766016869</v>
       </c>
       <c r="M15">
-        <v>1.040207175977334</v>
+        <v>1.040421178176414</v>
       </c>
       <c r="N15">
-        <v>1.009562235448491</v>
+        <v>1.012351623028196</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041692214651624</v>
+        <v>1.041861361020386</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034550066915972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034682184041101</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021208991612631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9916934258513869</v>
+        <v>0.9920663736459493</v>
       </c>
       <c r="D16">
-        <v>1.020593460991149</v>
+        <v>1.020488478837926</v>
       </c>
       <c r="E16">
-        <v>1.00028238983628</v>
+        <v>1.000651732205096</v>
       </c>
       <c r="F16">
-        <v>1.027751817738992</v>
+        <v>1.027761506245598</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045695580508397</v>
+        <v>1.045707843148271</v>
       </c>
       <c r="J16">
-        <v>1.02016267780112</v>
+        <v>1.020520531292389</v>
       </c>
       <c r="K16">
-        <v>1.034564973247533</v>
+        <v>1.034461784002629</v>
       </c>
       <c r="L16">
-        <v>1.014609884759859</v>
+        <v>1.014972586211187</v>
       </c>
       <c r="M16">
-        <v>1.041602191798104</v>
+        <v>1.041611717823832</v>
       </c>
       <c r="N16">
-        <v>1.010191357485903</v>
+        <v>1.012558514008987</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042756171693977</v>
+        <v>1.042763701237512</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035588164217174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035531585118342</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021468439872556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9934404118288371</v>
+        <v>0.9936782990626188</v>
       </c>
       <c r="D17">
-        <v>1.021698089059829</v>
+        <v>1.021462946411084</v>
       </c>
       <c r="E17">
-        <v>1.001639216197062</v>
+        <v>1.001890615916276</v>
       </c>
       <c r="F17">
-        <v>1.028732787234462</v>
+        <v>1.028644309712802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045997472096446</v>
+        <v>1.045954103324751</v>
       </c>
       <c r="J17">
-        <v>1.021153020262629</v>
+        <v>1.021381597415298</v>
       </c>
       <c r="K17">
-        <v>1.035336075460031</v>
+        <v>1.035104834475532</v>
       </c>
       <c r="L17">
-        <v>1.015618564931796</v>
+        <v>1.01586557679459</v>
       </c>
       <c r="M17">
-        <v>1.042255108517524</v>
+        <v>1.042168073128191</v>
       </c>
       <c r="N17">
-        <v>1.010503290084152</v>
+        <v>1.01267679037342</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043143431251034</v>
+        <v>1.043074630058885</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036135948126151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03598907566219</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021591671137761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.994212314353359</v>
+        <v>0.9944230917120611</v>
       </c>
       <c r="D18">
-        <v>1.022104083580797</v>
+        <v>1.021838708139072</v>
       </c>
       <c r="E18">
-        <v>1.002197444997555</v>
+        <v>1.002429316562456</v>
       </c>
       <c r="F18">
-        <v>1.028940242213875</v>
+        <v>1.028830437230393</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046036271569632</v>
+        <v>1.045986322518719</v>
       </c>
       <c r="J18">
-        <v>1.021495770812599</v>
+        <v>1.021698456245058</v>
       </c>
       <c r="K18">
-        <v>1.03555187617751</v>
+        <v>1.035290831823847</v>
       </c>
       <c r="L18">
-        <v>1.015978355177504</v>
+        <v>1.016206248181026</v>
       </c>
       <c r="M18">
-        <v>1.042277452184438</v>
+        <v>1.04216940852702</v>
       </c>
       <c r="N18">
-        <v>1.010558644014824</v>
+        <v>1.012679896495934</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042923851257895</v>
+        <v>1.04283842535474</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036276888402954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036107810877413</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021595415723021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9941258991729757</v>
+        <v>0.9943933202361239</v>
       </c>
       <c r="D19">
-        <v>1.021903657236227</v>
+        <v>1.021688071788411</v>
       </c>
       <c r="E19">
-        <v>1.002057203685719</v>
+        <v>1.002345405566079</v>
       </c>
       <c r="F19">
-        <v>1.028461044870412</v>
+        <v>1.028390833508976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045854019297511</v>
+        <v>1.045836165754846</v>
       </c>
       <c r="J19">
-        <v>1.021276737620627</v>
+        <v>1.021533950610724</v>
       </c>
       <c r="K19">
-        <v>1.035292145107841</v>
+        <v>1.03508006091842</v>
       </c>
       <c r="L19">
-        <v>1.015776168021291</v>
+        <v>1.016059449911095</v>
       </c>
       <c r="M19">
-        <v>1.041743935270763</v>
+        <v>1.041674845420951</v>
       </c>
       <c r="N19">
-        <v>1.010400682473915</v>
+        <v>1.012569616218793</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042177148601328</v>
+        <v>1.042122504172425</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036099646818634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03596581026723</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021499101139233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9916050412861749</v>
+        <v>0.992162518964956</v>
       </c>
       <c r="D20">
-        <v>1.019978736281751</v>
+        <v>1.020035900630514</v>
       </c>
       <c r="E20">
-        <v>0.9999328040499641</v>
+        <v>1.000489464855459</v>
       </c>
       <c r="F20">
-        <v>1.026084257183646</v>
+        <v>1.026223883753704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045043633527159</v>
+        <v>1.045166835014899</v>
       </c>
       <c r="J20">
-        <v>1.019463454656651</v>
+        <v>1.019998941680714</v>
       </c>
       <c r="K20">
-        <v>1.033679150915845</v>
+        <v>1.033735360269101</v>
       </c>
       <c r="L20">
-        <v>1.013976835120472</v>
+        <v>1.014523713070645</v>
       </c>
       <c r="M20">
-        <v>1.039683445535852</v>
+        <v>1.039820775291981</v>
       </c>
       <c r="N20">
-        <v>1.009632861526281</v>
+        <v>1.012122832200321</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040019987157526</v>
+        <v>1.04012866914589</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034963128655686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035019381585909</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021115292859941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9858284803020043</v>
+        <v>0.9869909759047431</v>
       </c>
       <c r="D21">
-        <v>1.016117041898092</v>
+        <v>1.016733083734088</v>
       </c>
       <c r="E21">
-        <v>0.9953293903702272</v>
+        <v>0.9964347612619874</v>
       </c>
       <c r="F21">
-        <v>1.0222608253996</v>
+        <v>1.022831653346935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04377999329993</v>
+        <v>1.044170463660861</v>
       </c>
       <c r="J21">
-        <v>1.015930892975839</v>
+        <v>1.017042851202032</v>
       </c>
       <c r="K21">
-        <v>1.030799372768919</v>
+        <v>1.031404229033542</v>
       </c>
       <c r="L21">
-        <v>1.010399792463573</v>
+        <v>1.011483994458907</v>
       </c>
       <c r="M21">
-        <v>1.036832385982861</v>
+        <v>1.037393009829145</v>
       </c>
       <c r="N21">
-        <v>1.008360227873536</v>
+        <v>1.011719690870811</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037722747919238</v>
+        <v>1.038166445685216</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032930259141983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033374765033344</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020587494052861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9821358869807908</v>
+        <v>0.9836864550499136</v>
       </c>
       <c r="D22">
-        <v>1.013660935353476</v>
+        <v>1.014635661483903</v>
       </c>
       <c r="E22">
-        <v>0.9923983076971332</v>
+        <v>0.9938559802755828</v>
       </c>
       <c r="F22">
-        <v>1.019861908773643</v>
+        <v>1.02071001354417</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042970710203016</v>
+        <v>1.043533194723005</v>
       </c>
       <c r="J22">
-        <v>1.013680682800104</v>
+        <v>1.01515974851928</v>
       </c>
       <c r="K22">
-        <v>1.028966538718922</v>
+        <v>1.029922653782762</v>
       </c>
       <c r="L22">
-        <v>1.008121874844409</v>
+        <v>1.009550141948316</v>
       </c>
       <c r="M22">
-        <v>1.035049905513932</v>
+        <v>1.035882070333502</v>
       </c>
       <c r="N22">
-        <v>1.007551795693502</v>
+        <v>1.011458245934211</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036312027279813</v>
+        <v>1.036970633490197</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03162082372583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032312402105988</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020252251013531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9840841911197641</v>
+        <v>0.9854109809298784</v>
       </c>
       <c r="D23">
-        <v>1.014949615047918</v>
+        <v>1.015720367400437</v>
       </c>
       <c r="E23">
-        <v>0.9939412763936135</v>
+        <v>0.995195000866583</v>
       </c>
       <c r="F23">
-        <v>1.021124236455282</v>
+        <v>1.021813816005136</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043392677102779</v>
+        <v>1.043856776788331</v>
       </c>
       <c r="J23">
-        <v>1.01486193715235</v>
+        <v>1.016129411105586</v>
       </c>
       <c r="K23">
-        <v>1.029924531008507</v>
+        <v>1.030680950506701</v>
       </c>
       <c r="L23">
-        <v>1.009318101641055</v>
+        <v>1.010547216346037</v>
       </c>
       <c r="M23">
-        <v>1.035985120917865</v>
+        <v>1.036662076854544</v>
       </c>
       <c r="N23">
-        <v>1.007973317486389</v>
+        <v>1.011545085804411</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037052191515633</v>
+        <v>1.037587959128356</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032288502934715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032837946383348</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020419780636174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9916079908164366</v>
+        <v>0.992172156826586</v>
       </c>
       <c r="D24">
-        <v>1.01995035914232</v>
+        <v>1.02001299177284</v>
       </c>
       <c r="E24">
-        <v>0.9999219291628021</v>
+        <v>1.000485442923593</v>
       </c>
       <c r="F24">
-        <v>1.026023815598511</v>
+        <v>1.026167953435368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045012889961457</v>
+        <v>1.045140148790099</v>
       </c>
       <c r="J24">
-        <v>1.019432955671822</v>
+        <v>1.019974898921639</v>
       </c>
       <c r="K24">
-        <v>1.033635953794639</v>
+        <v>1.033697541349415</v>
       </c>
       <c r="L24">
-        <v>1.013950415951249</v>
+        <v>1.014504038999941</v>
       </c>
       <c r="M24">
-        <v>1.039608833325399</v>
+        <v>1.039750602828034</v>
       </c>
       <c r="N24">
-        <v>1.009608317832772</v>
+        <v>1.012102818533283</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039920124970546</v>
+        <v>1.040032326108122</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034905147603124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03496254109368</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021097062119349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000001964962486</v>
+        <v>0.9999801623654998</v>
       </c>
       <c r="D25">
-        <v>1.025553377841495</v>
+        <v>1.025022542490747</v>
       </c>
       <c r="E25">
-        <v>1.006627504326725</v>
+        <v>1.006669433256957</v>
       </c>
       <c r="F25">
-        <v>1.03152900143057</v>
+        <v>1.031229265740131</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046779420354576</v>
+        <v>1.046633823536827</v>
       </c>
       <c r="J25">
-        <v>1.024529262978898</v>
+        <v>1.024508194144534</v>
       </c>
       <c r="K25">
-        <v>1.037767550861424</v>
+        <v>1.037244448382822</v>
       </c>
       <c r="L25">
-        <v>1.019123800700072</v>
+        <v>1.019165089656165</v>
       </c>
       <c r="M25">
-        <v>1.043656820649851</v>
+        <v>1.043361386252927</v>
       </c>
       <c r="N25">
-        <v>1.011428621877129</v>
+        <v>1.013329657128681</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043123831001166</v>
+        <v>1.042890015293805</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037823532885346</v>
+        <v>1.037467198558613</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021907371382331</v>
       </c>
     </row>
   </sheetData>
